--- a/input/industry_class.xlsx
+++ b/input/industry_class.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="921">
   <si>
     <t>证券代码</t>
   </si>
@@ -1925,6 +1925,886 @@
   </si>
   <si>
     <t>沪深300银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJNY</t>
+  </si>
+  <si>
+    <t>XSMD</t>
+  </si>
+  <si>
+    <t>ZGSH</t>
+  </si>
+  <si>
+    <t>YTNY</t>
+  </si>
+  <si>
+    <t>YZMY</t>
+  </si>
+  <si>
+    <t>HYGC</t>
+  </si>
+  <si>
+    <t>SHSH</t>
+  </si>
+  <si>
+    <t>SHYF</t>
+  </si>
+  <si>
+    <t>SXMY</t>
+  </si>
+  <si>
+    <t>ZGSY</t>
+  </si>
+  <si>
+    <t>ZMNY</t>
+  </si>
+  <si>
+    <t>ZJLN</t>
+  </si>
+  <si>
+    <t>TLYS</t>
+  </si>
+  <si>
+    <t>HGGF</t>
+  </si>
+  <si>
+    <t>YHGF</t>
+  </si>
+  <si>
+    <t>AGGF</t>
+  </si>
+  <si>
+    <t>SGGF</t>
+  </si>
+  <si>
+    <t>KDX</t>
+  </si>
+  <si>
+    <t>GFLY</t>
+  </si>
+  <si>
+    <t>TQLY</t>
+  </si>
+  <si>
+    <t>JZD</t>
+  </si>
+  <si>
+    <t>LMBL</t>
+  </si>
+  <si>
+    <t>YTKJ</t>
+  </si>
+  <si>
+    <t>SJHB</t>
+  </si>
+  <si>
+    <t>BGGF</t>
+  </si>
+  <si>
+    <t>BFXT</t>
+  </si>
+  <si>
+    <t>NSLY</t>
+  </si>
+  <si>
+    <t>WHHX</t>
+  </si>
+  <si>
+    <t>ZJLS</t>
+  </si>
+  <si>
+    <t>JXTY</t>
+  </si>
+  <si>
+    <t>ZJHJ</t>
+  </si>
+  <si>
+    <t>SDHJ</t>
+  </si>
+  <si>
+    <t>XMWY</t>
+  </si>
+  <si>
+    <t>HLSN</t>
+  </si>
+  <si>
+    <t>HNXJ</t>
+  </si>
+  <si>
+    <t>BYYS</t>
+  </si>
+  <si>
+    <t>JZJT</t>
+  </si>
+  <si>
+    <t>ZGLY</t>
+  </si>
+  <si>
+    <t>ZJKY</t>
+  </si>
+  <si>
+    <t>JMGF</t>
+  </si>
+  <si>
+    <t>JYJT</t>
+  </si>
+  <si>
+    <t>HYGY</t>
+  </si>
+  <si>
+    <t>LYMY</t>
+  </si>
+  <si>
+    <t>SZGT</t>
+  </si>
+  <si>
+    <t>ZLZK</t>
+  </si>
+  <si>
+    <t>WCDL</t>
+  </si>
+  <si>
+    <t>BHJK</t>
+  </si>
+  <si>
+    <t>XGJX</t>
+  </si>
+  <si>
+    <t>HFKZ</t>
+  </si>
+  <si>
+    <t>ZHFJ</t>
+  </si>
+  <si>
+    <t>QDSD</t>
+  </si>
+  <si>
+    <t>GXGK</t>
+  </si>
+  <si>
+    <t>JTL</t>
+  </si>
+  <si>
+    <t>JFKJ</t>
+  </si>
+  <si>
+    <t>DFYL</t>
+  </si>
+  <si>
+    <t>SFKG</t>
+  </si>
+  <si>
+    <t>STKD</t>
+  </si>
+  <si>
+    <t>JQR</t>
+  </si>
+  <si>
+    <t>BSY</t>
+  </si>
+  <si>
+    <t>HCJS</t>
+  </si>
+  <si>
+    <t>SHJC</t>
+  </si>
+  <si>
+    <t>SGJT</t>
+  </si>
+  <si>
+    <t>NFHK</t>
+  </si>
+  <si>
+    <t>SYZG</t>
+  </si>
+  <si>
+    <t>ZZGF</t>
+  </si>
+  <si>
+    <t>GZB</t>
+  </si>
+  <si>
+    <t>TBDG</t>
+  </si>
+  <si>
+    <t>DFHK</t>
+  </si>
+  <si>
+    <t>ZGWX</t>
+  </si>
+  <si>
+    <t>JFGF</t>
+  </si>
+  <si>
+    <t>SHJG</t>
+  </si>
+  <si>
+    <t>HHKG</t>
+  </si>
+  <si>
+    <t>YTSD</t>
+  </si>
+  <si>
+    <t>ZHDZ</t>
+  </si>
+  <si>
+    <t>GDNR</t>
+  </si>
+  <si>
+    <t>XSPC</t>
+  </si>
+  <si>
+    <t>ZGDL</t>
+  </si>
+  <si>
+    <t>ZCFW</t>
+  </si>
+  <si>
+    <t>WCZD</t>
+  </si>
+  <si>
+    <t>LNCD</t>
+  </si>
+  <si>
+    <t>SDGF</t>
+  </si>
+  <si>
+    <t>HFDL</t>
+  </si>
+  <si>
+    <t>DQTL</t>
+  </si>
+  <si>
+    <t>LJGF</t>
+  </si>
+  <si>
+    <t>NBG</t>
+  </si>
+  <si>
+    <t>CQHK</t>
+  </si>
+  <si>
+    <t>ZGGH</t>
+  </si>
+  <si>
+    <t>ZGHX</t>
+  </si>
+  <si>
+    <t>ZGTJ</t>
+  </si>
+  <si>
+    <t>GZG</t>
+  </si>
+  <si>
+    <t>GSTL</t>
+  </si>
+  <si>
+    <t>ZGZT</t>
+  </si>
+  <si>
+    <t>ZXZG</t>
+  </si>
+  <si>
+    <t>ZGHJ</t>
+  </si>
+  <si>
+    <t>ZGZY</t>
+  </si>
+  <si>
+    <t>ZGJZ</t>
+  </si>
+  <si>
+    <t>ZGDJ</t>
+  </si>
+  <si>
+    <t>SHDQ</t>
+  </si>
+  <si>
+    <t>ZGZC</t>
+  </si>
+  <si>
+    <t>ZGJJ</t>
+  </si>
+  <si>
+    <t>ZYHF</t>
+  </si>
+  <si>
+    <t>ZSLC</t>
+  </si>
+  <si>
+    <t>ZTDQ</t>
+  </si>
+  <si>
+    <t>ZYHK</t>
+  </si>
+  <si>
+    <t>ZGZG</t>
+  </si>
+  <si>
+    <t>HQCA</t>
+  </si>
+  <si>
+    <t>TCLJT</t>
+  </si>
+  <si>
+    <t>MDJT</t>
+  </si>
+  <si>
+    <t>WXQC</t>
+  </si>
+  <si>
+    <t>CAQC</t>
+  </si>
+  <si>
+    <t>GLDQ</t>
+  </si>
+  <si>
+    <t>ZXGA</t>
+  </si>
+  <si>
+    <t>SNYS</t>
+  </si>
+  <si>
+    <t>FZCM</t>
+  </si>
+  <si>
+    <t>AFYL</t>
+  </si>
+  <si>
+    <t>SLJM</t>
+  </si>
+  <si>
+    <t>LBDQ</t>
+  </si>
+  <si>
+    <t>SFY</t>
+  </si>
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>SJHT</t>
+  </si>
+  <si>
+    <t>WDDY</t>
+  </si>
+  <si>
+    <t>HYXD</t>
+  </si>
+  <si>
+    <t>SCYY</t>
+  </si>
+  <si>
+    <t>GXCM</t>
+  </si>
+  <si>
+    <t>YTKC</t>
+  </si>
+  <si>
+    <t>SQJT</t>
+  </si>
+  <si>
+    <t>YGE</t>
+  </si>
+  <si>
+    <t>GHQC</t>
+  </si>
+  <si>
+    <t>ZWCM</t>
+  </si>
+  <si>
+    <t>DFMZ</t>
+  </si>
+  <si>
+    <t>FYBL</t>
+  </si>
+  <si>
+    <t>NJXB</t>
+  </si>
+  <si>
+    <t>QDHE</t>
+  </si>
+  <si>
+    <t>HYQC</t>
+  </si>
+  <si>
+    <t>JSYX</t>
+  </si>
+  <si>
+    <t>ZGDY</t>
+  </si>
+  <si>
+    <t>SJLT</t>
+  </si>
+  <si>
+    <t>CCQC</t>
+  </si>
+  <si>
+    <t>JHJT</t>
+  </si>
+  <si>
+    <t>ZGGL</t>
+  </si>
+  <si>
+    <t>LLLT</t>
+  </si>
+  <si>
+    <t>OPJJ</t>
+  </si>
+  <si>
+    <t>LZLJ</t>
+  </si>
+  <si>
+    <t>WLY</t>
+  </si>
+  <si>
+    <t>XXW</t>
+  </si>
+  <si>
+    <t>SHFZ</t>
+  </si>
+  <si>
+    <t>DBN</t>
+  </si>
+  <si>
+    <t>MYGF</t>
+  </si>
+  <si>
+    <t>GZMT</t>
+  </si>
+  <si>
+    <t>BLGF</t>
+  </si>
+  <si>
+    <t>YLGF</t>
+  </si>
+  <si>
+    <t>YHCS</t>
+  </si>
+  <si>
+    <t>DEEJ</t>
+  </si>
+  <si>
+    <t>YNBY</t>
+  </si>
+  <si>
+    <t>JLAD</t>
+  </si>
+  <si>
+    <t>HDYY</t>
+  </si>
+  <si>
+    <t>HLSW</t>
+  </si>
+  <si>
+    <t>MNJK</t>
+  </si>
+  <si>
+    <t>SHLS</t>
+  </si>
+  <si>
+    <t>XLT</t>
+  </si>
+  <si>
+    <t>BKGF</t>
+  </si>
+  <si>
+    <t>GZBL</t>
+  </si>
+  <si>
+    <t>LPYL</t>
+  </si>
+  <si>
+    <t>AEYK</t>
+  </si>
+  <si>
+    <t>ZFSW</t>
+  </si>
+  <si>
+    <t>TRT</t>
+  </si>
+  <si>
+    <t>FXYY</t>
+  </si>
+  <si>
+    <t>HRYY</t>
+  </si>
+  <si>
+    <t>BYS</t>
+  </si>
+  <si>
+    <t>PZH</t>
+  </si>
+  <si>
+    <t>KMYY</t>
+  </si>
+  <si>
+    <t>TSL</t>
+  </si>
+  <si>
+    <t>SHYY</t>
+  </si>
+  <si>
+    <t>BCZY</t>
+  </si>
+  <si>
+    <t>PAYH</t>
+  </si>
+  <si>
+    <t>WKA</t>
+  </si>
+  <si>
+    <t>SWHY</t>
+  </si>
+  <si>
+    <t>JRJ</t>
+  </si>
+  <si>
+    <t>ZTJR</t>
+  </si>
+  <si>
+    <t>TMJT</t>
+  </si>
+  <si>
+    <t>YGC</t>
+  </si>
+  <si>
+    <t>DBZQ</t>
+  </si>
+  <si>
+    <t>GYZQ</t>
+  </si>
+  <si>
+    <t>GHZQ</t>
+  </si>
+  <si>
+    <t>GFZQ</t>
+  </si>
+  <si>
+    <t>CJZQ</t>
+  </si>
+  <si>
+    <t>ZNJS</t>
+  </si>
+  <si>
+    <t>ZSSK</t>
+  </si>
+  <si>
+    <t>NBYH</t>
+  </si>
+  <si>
+    <t>RSFZ</t>
+  </si>
+  <si>
+    <t>SXZQ</t>
+  </si>
+  <si>
+    <t>XBZQ</t>
+  </si>
+  <si>
+    <t>GXZQ</t>
+  </si>
+  <si>
+    <t>DYCY</t>
+  </si>
+  <si>
+    <t>ZJGH</t>
+  </si>
+  <si>
+    <t>PFYH</t>
+  </si>
+  <si>
+    <t>HXYH</t>
+  </si>
+  <si>
+    <t>MSYH</t>
+  </si>
+  <si>
+    <t>ZXZQ</t>
+  </si>
+  <si>
+    <t>ZSYH</t>
+  </si>
+  <si>
+    <t>BLDC</t>
+  </si>
+  <si>
+    <t>GTZB</t>
+  </si>
+  <si>
+    <t>GJZQ</t>
+  </si>
+  <si>
+    <t>XHZB</t>
+  </si>
+  <si>
+    <t>HXXF</t>
+  </si>
+  <si>
+    <t>XNZQ</t>
+  </si>
+  <si>
+    <t>SKGF</t>
+  </si>
+  <si>
+    <t>JDJT</t>
+  </si>
+  <si>
+    <t>WKZB</t>
+  </si>
+  <si>
+    <t>LDKG</t>
+  </si>
+  <si>
+    <t>CTKG</t>
+  </si>
+  <si>
+    <t>LJZ</t>
+  </si>
+  <si>
+    <t>ZHZB</t>
+  </si>
+  <si>
+    <t>AXXT</t>
+  </si>
+  <si>
+    <t>HTZQ</t>
+  </si>
+  <si>
+    <t>ZJGK</t>
+  </si>
+  <si>
+    <t>HAZQ</t>
+  </si>
+  <si>
+    <t>JSYH</t>
+  </si>
+  <si>
+    <t>HZYH</t>
+  </si>
+  <si>
+    <t>DFZQ</t>
+  </si>
+  <si>
+    <t>ZSZQ</t>
+  </si>
+  <si>
+    <t>NJYH</t>
+  </si>
+  <si>
+    <t>TPY</t>
+  </si>
+  <si>
+    <t>XCKG</t>
+  </si>
+  <si>
+    <t>XYYH</t>
+  </si>
+  <si>
+    <t>BJYH</t>
+  </si>
+  <si>
+    <t>DXZQ</t>
+  </si>
+  <si>
+    <t>GTJA</t>
+  </si>
+  <si>
+    <t>SHYH</t>
+  </si>
+  <si>
+    <t>NYYH</t>
+  </si>
+  <si>
+    <t>ZGPA</t>
+  </si>
+  <si>
+    <t>JTYH</t>
+  </si>
+  <si>
+    <t>XHBX</t>
+  </si>
+  <si>
+    <t>ZYZQ</t>
+  </si>
+  <si>
+    <t>XYZQ</t>
+  </si>
+  <si>
+    <t>GSYH</t>
+  </si>
+  <si>
+    <t>DWZQ</t>
+  </si>
+  <si>
+    <t>ZGTB</t>
+  </si>
+  <si>
+    <t>ZGRS</t>
+  </si>
+  <si>
+    <t>GDZQ</t>
+  </si>
+  <si>
+    <t>GDYH</t>
+  </si>
+  <si>
+    <t>ZGYH</t>
+  </si>
+  <si>
+    <t>FZZQ</t>
+  </si>
+  <si>
+    <t>GYYH</t>
+  </si>
+  <si>
+    <t>ZXYH</t>
+  </si>
+  <si>
+    <t>DXGD</t>
+  </si>
+  <si>
+    <t>JDFA</t>
+  </si>
+  <si>
+    <t>ZGGF</t>
+  </si>
+  <si>
+    <t>DZJG</t>
+  </si>
+  <si>
+    <t>DHRJ</t>
+  </si>
+  <si>
+    <t>SJXX</t>
+  </si>
+  <si>
+    <t>YZWL</t>
+  </si>
+  <si>
+    <t>KDXF</t>
+  </si>
+  <si>
+    <t>DHGF</t>
+  </si>
+  <si>
+    <t>GEGF</t>
+  </si>
+  <si>
+    <t>HKWS</t>
+  </si>
+  <si>
+    <t>OFKJ</t>
+  </si>
+  <si>
+    <t>LXJM</t>
+  </si>
+  <si>
+    <t>SQHY</t>
+  </si>
+  <si>
+    <t>JRWL</t>
+  </si>
+  <si>
+    <t>WMSJ</t>
+  </si>
+  <si>
+    <t>SYGF</t>
+  </si>
+  <si>
+    <t>WSKJ</t>
+  </si>
+  <si>
+    <t>THS</t>
+  </si>
+  <si>
+    <t>DFCF</t>
+  </si>
+  <si>
+    <t>ZQKJ</t>
+  </si>
+  <si>
+    <t>STBQL</t>
+  </si>
+  <si>
+    <t>TFGF</t>
+  </si>
+  <si>
+    <t>HTXX</t>
+  </si>
+  <si>
+    <t>HSDZ</t>
+  </si>
+  <si>
+    <t>YYWL</t>
+  </si>
+  <si>
+    <t>SAGD</t>
+  </si>
+  <si>
+    <t>PBS</t>
+  </si>
+  <si>
+    <t>HDKJ</t>
+  </si>
+  <si>
+    <t>ZXTX</t>
+  </si>
+  <si>
+    <t>HGTX</t>
+  </si>
+  <si>
+    <t>XWTX</t>
+  </si>
+  <si>
+    <t>ZGLT</t>
+  </si>
+  <si>
+    <t>XWJT</t>
+  </si>
+  <si>
+    <t>FHTX</t>
+  </si>
+  <si>
+    <t>ZTKJ</t>
+  </si>
+  <si>
+    <t>JSGX</t>
+  </si>
+  <si>
+    <t>SCGF</t>
+  </si>
+  <si>
+    <t>HNGJ</t>
+  </si>
+  <si>
+    <t>SHDL</t>
+  </si>
+  <si>
+    <t>ZNDL</t>
+  </si>
+  <si>
+    <t>CTNY</t>
+  </si>
+  <si>
+    <t>GDDL</t>
+  </si>
+  <si>
+    <t>GTDL</t>
+  </si>
+  <si>
+    <t>CJDL</t>
+  </si>
+  <si>
+    <t>ZGHD</t>
+  </si>
+  <si>
+    <t>DTFD</t>
+  </si>
+  <si>
+    <t>拼音简称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1935,7 +2815,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1948,6 +2828,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1974,7 +2870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1989,6 +2885,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2297,238 +3199,287 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="C318" sqref="C318"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="D1" t="s">
         <v>602</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D2" t="s">
         <v>604</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>35565</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D3" t="s">
         <v>605</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>36733</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D4" t="s">
         <v>604</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>37111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D5" t="s">
         <v>604</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>35928</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="D6" t="s">
         <v>604</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>35977</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D7" t="s">
         <v>604</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>37292</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D8" t="s">
         <v>604</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>34281</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D9" t="s">
         <v>604</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>34800</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D10" t="s">
         <v>604</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>39364</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D11" t="s">
         <v>604</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>41667</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D12" t="s">
         <v>604</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>39391</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D13" t="s">
         <v>604</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>39479</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D14" t="s">
         <v>607</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>35453</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="D15" t="s">
         <v>608</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>35389</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D16" t="s">
         <v>606</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>35536</v>
       </c>
     </row>
@@ -2539,10 +3490,13 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D17" t="s">
         <v>606</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>35677</v>
       </c>
     </row>
@@ -2553,10 +3507,13 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D18" t="s">
         <v>606</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>35789</v>
       </c>
     </row>
@@ -2567,13 +3524,15 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D19" t="s">
         <v>606</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>36510</v>
       </c>
-      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
@@ -2582,13 +3541,15 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D20" t="s">
         <v>606</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>40375</v>
       </c>
-      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
@@ -2597,13 +3558,15 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D21" t="s">
         <v>606</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>40400</v>
       </c>
-      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
@@ -2612,13 +3575,15 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D22" t="s">
         <v>606</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>40421</v>
       </c>
-      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
@@ -2627,13 +3592,15 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D23" t="s">
         <v>606</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>40429</v>
       </c>
-      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -2642,13 +3609,15 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D24" t="s">
         <v>606</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>40739</v>
       </c>
-      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -2657,13 +3626,15 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D25" t="s">
         <v>606</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>42720</v>
       </c>
-      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
@@ -2672,13 +3643,15 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D26" t="s">
         <v>606</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>40295</v>
       </c>
-      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
@@ -2687,13 +3660,15 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D27" t="s">
         <v>606</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>36959</v>
       </c>
-      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
@@ -2702,13 +3677,15 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D28" t="s">
         <v>606</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>36872</v>
       </c>
-      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
@@ -2717,13 +3694,15 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D29" t="s">
         <v>606</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>35697</v>
       </c>
-      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
@@ -2732,13 +3711,15 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D30" t="s">
         <v>606</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>36517</v>
       </c>
-      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
@@ -2747,10 +3728,13 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D31" t="s">
         <v>606</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>36896</v>
       </c>
     </row>
@@ -2761,10 +3745,13 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D32" t="s">
         <v>606</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>37834</v>
       </c>
     </row>
@@ -2775,10 +3762,13 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D33" t="s">
         <v>606</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>37267</v>
       </c>
     </row>
@@ -2789,10 +3779,13 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D34" t="s">
         <v>606</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>37847</v>
       </c>
     </row>
@@ -2803,10 +3796,13 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D35" t="s">
         <v>606</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>37861</v>
       </c>
     </row>
@@ -2817,10 +3813,13 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D36" t="s">
         <v>606</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>37567</v>
       </c>
     </row>
@@ -2831,10 +3830,13 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D37" t="s">
         <v>606</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>37294</v>
       </c>
     </row>
@@ -2845,10 +3847,13 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D38" t="s">
         <v>606</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>40550</v>
       </c>
     </row>
@@ -2859,10 +3864,13 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D39" t="s">
         <v>606</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>42781</v>
       </c>
     </row>
@@ -2873,10 +3881,13 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D40" t="s">
         <v>606</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>40596</v>
       </c>
     </row>
@@ -2887,10 +3898,13 @@
       <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D41" t="s">
         <v>606</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>39202</v>
       </c>
     </row>
@@ -2901,10 +3915,13 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D42" t="s">
         <v>606</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>39563</v>
       </c>
     </row>
@@ -2915,10 +3932,13 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D43" t="s">
         <v>606</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>39555</v>
       </c>
     </row>
@@ -2929,10 +3949,13 @@
       <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D44" t="s">
         <v>606</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>40603</v>
       </c>
     </row>
@@ -2943,10 +3966,13 @@
       <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D45" t="s">
         <v>606</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>42033</v>
       </c>
     </row>
@@ -2957,10 +3983,13 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D46" t="s">
         <v>606</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>41191</v>
       </c>
     </row>
@@ -2971,10 +4000,13 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D47" t="s">
         <v>610</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>33731</v>
       </c>
     </row>
@@ -2985,10 +4017,13 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D48" t="s">
         <v>611</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>36811</v>
       </c>
       <c r="H48" s="4"/>
@@ -3000,10 +4035,13 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="D49" t="s">
         <v>609</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>39202</v>
       </c>
       <c r="H49" s="4"/>
@@ -3015,10 +4053,13 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D50" t="s">
         <v>609</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>35262</v>
       </c>
       <c r="H50" s="4"/>
@@ -3030,10 +4071,13 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D51" t="s">
         <v>609</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>35305</v>
       </c>
       <c r="H51" s="4"/>
@@ -3045,10 +4089,13 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D52" t="s">
         <v>609</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E52" s="4">
         <v>35607</v>
       </c>
       <c r="H52" s="4"/>
@@ -3060,10 +4107,13 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D53" t="s">
         <v>609</v>
       </c>
-      <c r="D53" s="4">
+      <c r="E53" s="4">
         <v>35607</v>
       </c>
       <c r="H53" s="4"/>
@@ -3075,10 +4125,13 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D54" t="s">
         <v>609</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E54" s="4">
         <v>35851</v>
       </c>
       <c r="H54" s="4"/>
@@ -3090,10 +4143,13 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D55" t="s">
         <v>609</v>
       </c>
-      <c r="D55" s="4">
+      <c r="E55" s="4">
         <v>39008</v>
       </c>
       <c r="H55" s="4"/>
@@ -3105,10 +4161,13 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D56" t="s">
         <v>609</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E56" s="4">
         <v>39041</v>
       </c>
       <c r="H56" s="4"/>
@@ -3120,10 +4179,13 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D57" t="s">
         <v>609</v>
       </c>
-      <c r="D57" s="4">
+      <c r="E57" s="4">
         <v>39442</v>
       </c>
       <c r="H57" s="4"/>
@@ -3135,10 +4197,13 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D58" t="s">
         <v>609</v>
       </c>
-      <c r="D58" s="4">
+      <c r="E58" s="4">
         <v>40144</v>
       </c>
       <c r="H58" s="4"/>
@@ -3150,10 +4215,13 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D59" t="s">
         <v>609</v>
       </c>
-      <c r="D59" s="4">
+      <c r="E59" s="4">
         <v>40214</v>
       </c>
       <c r="H59" s="4"/>
@@ -3165,10 +4233,13 @@
       <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D60" t="s">
         <v>609</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E60" s="4">
         <v>40429</v>
       </c>
       <c r="H60" s="4"/>
@@ -3180,10 +4251,13 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D61" t="s">
         <v>609</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <v>40116</v>
       </c>
       <c r="H61" s="4"/>
@@ -3195,10 +4269,13 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D62" t="s">
         <v>609</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E62" s="4">
         <v>40289</v>
       </c>
       <c r="H62" s="4"/>
@@ -3210,10 +4287,13 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D63" t="s">
         <v>609</v>
       </c>
-      <c r="D63" s="4">
+      <c r="E63" s="4">
         <v>40449</v>
       </c>
       <c r="H63" s="4"/>
@@ -3225,10 +4305,13 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D64" t="s">
         <v>609</v>
       </c>
-      <c r="D64" s="4">
+      <c r="E64" s="4">
         <v>35844</v>
       </c>
       <c r="H64" s="4"/>
@@ -3240,10 +4323,13 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D65" t="s">
         <v>609</v>
       </c>
-      <c r="D65" s="4">
+      <c r="E65" s="4">
         <v>39016</v>
       </c>
       <c r="H65" s="4"/>
@@ -3255,10 +4341,13 @@
       <c r="B66" t="s">
         <v>66</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D66" t="s">
         <v>609</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E66" s="4">
         <v>37827</v>
       </c>
       <c r="H66" s="4"/>
@@ -3270,10 +4359,13 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D67" t="s">
         <v>609</v>
       </c>
-      <c r="D67" s="4">
+      <c r="E67" s="4">
         <v>37805</v>
       </c>
       <c r="H67" s="4"/>
@@ -3285,10 +4377,13 @@
       <c r="B68" t="s">
         <v>68</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D68" t="s">
         <v>609</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E68" s="4">
         <v>36878</v>
       </c>
       <c r="H68" s="4"/>
@@ -3300,10 +4395,13 @@
       <c r="B69" t="s">
         <v>69</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D69" t="s">
         <v>609</v>
       </c>
-      <c r="D69" s="4">
+      <c r="E69" s="4">
         <v>35576</v>
       </c>
       <c r="H69" s="4"/>
@@ -3315,10 +4413,13 @@
       <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D70" t="s">
         <v>609</v>
       </c>
-      <c r="D70" s="4">
+      <c r="E70" s="4">
         <v>35599</v>
       </c>
       <c r="H70" s="4"/>
@@ -3330,10 +4431,13 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D71" t="s">
         <v>609</v>
       </c>
-      <c r="D71" s="4">
+      <c r="E71" s="4">
         <v>35739</v>
       </c>
       <c r="H71" s="4"/>
@@ -3345,10 +4449,13 @@
       <c r="B72" t="s">
         <v>72</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D72" t="s">
         <v>609</v>
       </c>
-      <c r="D72" s="4">
+      <c r="E72" s="4">
         <v>35681</v>
       </c>
       <c r="H72" s="4"/>
@@ -3360,10 +4467,13 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D73" t="s">
         <v>609</v>
       </c>
-      <c r="D73" s="4">
+      <c r="E73" s="4">
         <v>35962</v>
       </c>
       <c r="H73" s="4"/>
@@ -3375,10 +4485,13 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D74" t="s">
         <v>609</v>
       </c>
-      <c r="D74" s="4">
+      <c r="E74" s="4">
         <v>35969</v>
       </c>
       <c r="H74" s="4"/>
@@ -3390,10 +4503,13 @@
       <c r="B75" t="s">
         <v>75</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="D75" t="s">
         <v>609</v>
       </c>
-      <c r="D75" s="4">
+      <c r="E75" s="4">
         <v>36489</v>
       </c>
       <c r="H75" s="4"/>
@@ -3405,10 +4521,13 @@
       <c r="B76" t="s">
         <v>76</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D76" t="s">
         <v>609</v>
       </c>
-      <c r="D76" s="4">
+      <c r="E76" s="4">
         <v>36685</v>
       </c>
       <c r="H76" s="4"/>
@@ -3420,10 +4539,13 @@
       <c r="B77" t="s">
         <v>77</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D77" t="s">
         <v>609</v>
       </c>
-      <c r="D77" s="4">
+      <c r="E77" s="4">
         <v>37078</v>
       </c>
       <c r="H77" s="4"/>
@@ -3435,10 +4557,13 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D78" t="s">
         <v>609</v>
       </c>
-      <c r="D78" s="4">
+      <c r="E78" s="4">
         <v>37910</v>
       </c>
       <c r="H78" s="4"/>
@@ -3450,10 +4575,13 @@
       <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D79" t="s">
         <v>609</v>
       </c>
-      <c r="D79" s="4">
+      <c r="E79" s="4">
         <v>37385</v>
       </c>
       <c r="H79" s="4"/>
@@ -3465,10 +4593,13 @@
       <c r="B80" t="s">
         <v>80</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D80" t="s">
         <v>609</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E80" s="4">
         <v>38182</v>
       </c>
       <c r="H80" s="4"/>
@@ -3480,10 +4611,13 @@
       <c r="B81" t="s">
         <v>81</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="D81" t="s">
         <v>609</v>
       </c>
-      <c r="D81" s="4">
+      <c r="E81" s="4">
         <v>34270</v>
       </c>
       <c r="H81" s="4"/>
@@ -3495,10 +4629,13 @@
       <c r="B82" t="s">
         <v>82</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D82" t="s">
         <v>609</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <v>35222</v>
       </c>
       <c r="H82" s="4"/>
@@ -3510,10 +4647,13 @@
       <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D83" t="s">
         <v>609</v>
       </c>
-      <c r="D83" s="4">
+      <c r="E83" s="4">
         <v>35296</v>
       </c>
       <c r="H83" s="4"/>
@@ -3525,10 +4665,13 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="D84" t="s">
         <v>609</v>
       </c>
-      <c r="D84" s="4">
+      <c r="E84" s="4">
         <v>34362</v>
       </c>
       <c r="H84" s="4"/>
@@ -3540,10 +4683,13 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D85" t="s">
         <v>609</v>
       </c>
-      <c r="D85" s="4">
+      <c r="E85" s="4">
         <v>35163</v>
       </c>
       <c r="H85" s="4"/>
@@ -3555,10 +4701,13 @@
       <c r="B86" t="s">
         <v>86</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D86" t="s">
         <v>609</v>
       </c>
-      <c r="D86" s="4">
+      <c r="E86" s="4">
         <v>38930</v>
       </c>
       <c r="H86" s="4"/>
@@ -3570,10 +4719,13 @@
       <c r="B87" t="s">
         <v>87</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D87" t="s">
         <v>609</v>
       </c>
-      <c r="D87" s="4">
+      <c r="E87" s="4">
         <v>41010</v>
       </c>
       <c r="H87" s="4"/>
@@ -3585,10 +4737,13 @@
       <c r="B88" t="s">
         <v>88</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D88" t="s">
         <v>609</v>
       </c>
-      <c r="D88" s="4">
+      <c r="E88" s="4">
         <v>40449</v>
       </c>
       <c r="H88" s="4"/>
@@ -3600,10 +4755,13 @@
       <c r="B89" t="s">
         <v>89</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D89" t="s">
         <v>609</v>
       </c>
-      <c r="D89" s="4">
+      <c r="E89" s="4">
         <v>42025</v>
       </c>
       <c r="H89" s="4"/>
@@ -3615,10 +4773,13 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D90" t="s">
         <v>609</v>
       </c>
-      <c r="D90" s="4">
+      <c r="E90" s="4">
         <v>38947</v>
       </c>
       <c r="H90" s="4"/>
@@ -3630,10 +4791,13 @@
       <c r="B91" t="s">
         <v>91</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="D91" t="s">
         <v>609</v>
       </c>
-      <c r="D91" s="4">
+      <c r="E91" s="4">
         <v>40185</v>
       </c>
       <c r="H91" s="4"/>
@@ -3645,10 +4809,13 @@
       <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="D92" t="s">
         <v>609</v>
       </c>
-      <c r="D92" s="4">
+      <c r="E92" s="4">
         <v>39517</v>
       </c>
       <c r="H92" s="4"/>
@@ -3660,10 +4827,13 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D93" t="s">
         <v>609</v>
       </c>
-      <c r="D93" s="4">
+      <c r="E93" s="4">
         <v>42823</v>
       </c>
       <c r="H93" s="4"/>
@@ -3675,10 +4845,13 @@
       <c r="B94" t="s">
         <v>94</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D94" t="s">
         <v>609</v>
       </c>
-      <c r="D94" s="4">
+      <c r="E94" s="4">
         <v>39073</v>
       </c>
       <c r="H94" s="4"/>
@@ -3690,10 +4863,13 @@
       <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D95" t="s">
         <v>609</v>
       </c>
-      <c r="D95" s="4">
+      <c r="E95" s="4">
         <v>39419</v>
       </c>
       <c r="H95" s="4"/>
@@ -3705,10 +4881,13 @@
       <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="D96" t="s">
         <v>609</v>
       </c>
-      <c r="D96" s="4">
+      <c r="E96" s="4">
         <v>41096</v>
       </c>
       <c r="H96" s="4"/>
@@ -3720,10 +4899,13 @@
       <c r="B97" t="s">
         <v>97</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="D97" t="s">
         <v>609</v>
       </c>
-      <c r="D97" s="4">
+      <c r="E97" s="4">
         <v>42527</v>
       </c>
       <c r="H97" s="4"/>
@@ -3735,10 +4917,13 @@
       <c r="B98" t="s">
         <v>98</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D98" t="s">
         <v>609</v>
       </c>
-      <c r="D98" s="4">
+      <c r="E98" s="4">
         <v>40077</v>
       </c>
       <c r="H98" s="4"/>
@@ -3750,10 +4935,13 @@
       <c r="B99" t="s">
         <v>99</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="D99" t="s">
         <v>609</v>
       </c>
-      <c r="D99" s="4">
+      <c r="E99" s="4">
         <v>40023</v>
       </c>
       <c r="H99" s="4"/>
@@ -3765,10 +4953,13 @@
       <c r="B100" t="s">
         <v>100</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="D100" t="s">
         <v>609</v>
       </c>
-      <c r="D100" s="4">
+      <c r="E100" s="4">
         <v>40834</v>
       </c>
       <c r="H100" s="4"/>
@@ -3780,10 +4971,13 @@
       <c r="B101" t="s">
         <v>101</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="D101" t="s">
         <v>609</v>
       </c>
-      <c r="D101" s="4">
+      <c r="E101" s="4">
         <v>39787</v>
       </c>
       <c r="H101" s="4"/>
@@ -3795,10 +4989,13 @@
       <c r="B102" t="s">
         <v>102</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D102" t="s">
         <v>609</v>
       </c>
-      <c r="D102" s="4">
+      <c r="E102" s="4">
         <v>39678</v>
       </c>
       <c r="H102" s="4"/>
@@ -3810,10 +5007,13 @@
       <c r="B103" t="s">
         <v>103</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D103" t="s">
         <v>609</v>
       </c>
-      <c r="D103" s="4">
+      <c r="E103" s="4">
         <v>40977</v>
       </c>
       <c r="H103" s="4"/>
@@ -3825,10 +5025,13 @@
       <c r="B104" t="s">
         <v>104</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D104" t="s">
         <v>609</v>
       </c>
-      <c r="D104" s="4">
+      <c r="E104" s="4">
         <v>39428</v>
       </c>
       <c r="H104" s="4"/>
@@ -3840,10 +5043,13 @@
       <c r="B105" t="s">
         <v>105</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="D105" t="s">
         <v>609</v>
       </c>
-      <c r="D105" s="4">
+      <c r="E105" s="4">
         <v>39052</v>
       </c>
       <c r="H105" s="4"/>
@@ -3855,10 +5061,13 @@
       <c r="B106" t="s">
         <v>106</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="D106" t="s">
         <v>609</v>
       </c>
-      <c r="D106" s="4">
+      <c r="E106" s="4">
         <v>40199</v>
       </c>
       <c r="H106" s="4"/>
@@ -3870,10 +5079,13 @@
       <c r="B107" t="s">
         <v>107</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="D107" t="s">
         <v>609</v>
       </c>
-      <c r="D107" s="4">
+      <c r="E107" s="4">
         <v>39259</v>
       </c>
       <c r="H107" s="4"/>
@@ -3885,10 +5097,13 @@
       <c r="B108" t="s">
         <v>108</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="D108" t="s">
         <v>609</v>
       </c>
-      <c r="D108" s="4">
+      <c r="E108" s="4">
         <v>40163</v>
       </c>
       <c r="H108" s="4"/>
@@ -3900,10 +5115,13 @@
       <c r="B109" t="s">
         <v>109</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D109" t="s">
         <v>612</v>
       </c>
-      <c r="D109" s="4">
+      <c r="E109" s="4">
         <v>35683</v>
       </c>
       <c r="H109" s="4"/>
@@ -3915,10 +5133,13 @@
       <c r="B110" t="s">
         <v>110</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D110" t="s">
         <v>613</v>
       </c>
-      <c r="D110" s="4">
+      <c r="E110" s="4">
         <v>38016</v>
       </c>
       <c r="H110" s="4"/>
@@ -3930,10 +5151,13 @@
       <c r="B111" t="s">
         <v>111</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D111" t="s">
         <v>612</v>
       </c>
-      <c r="D111" s="4">
+      <c r="E111" s="4">
         <v>41535</v>
       </c>
       <c r="H111" s="4"/>
@@ -3945,10 +5169,13 @@
       <c r="B112" t="s">
         <v>112</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D112" t="s">
         <v>612</v>
       </c>
-      <c r="D112" s="4">
+      <c r="E112" s="4">
         <v>34344</v>
       </c>
       <c r="H112" s="4"/>
@@ -3960,10 +5187,13 @@
       <c r="B113" t="s">
         <v>113</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D113" t="s">
         <v>612</v>
       </c>
-      <c r="D113" s="4">
+      <c r="E113" s="4">
         <v>35591</v>
       </c>
       <c r="H113" s="4"/>
@@ -3975,10 +5205,13 @@
       <c r="B114" t="s">
         <v>114</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="D114" t="s">
         <v>612</v>
       </c>
-      <c r="D114" s="4">
+      <c r="E114" s="4">
         <v>35387</v>
       </c>
       <c r="H114" s="4"/>
@@ -3990,10 +5223,13 @@
       <c r="B115" t="s">
         <v>115</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="D115" t="s">
         <v>612</v>
       </c>
-      <c r="D115" s="4">
+      <c r="E115" s="4">
         <v>35734</v>
       </c>
       <c r="H115" s="4"/>
@@ -4005,10 +5241,13 @@
       <c r="B116" t="s">
         <v>116</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="D116" t="s">
         <v>612</v>
       </c>
-      <c r="D116" s="4">
+      <c r="E116" s="4">
         <v>38189</v>
       </c>
       <c r="H116" s="4"/>
@@ -4020,10 +5259,13 @@
       <c r="B117" t="s">
         <v>117</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D117" t="s">
         <v>612</v>
       </c>
-      <c r="D117" s="4">
+      <c r="E117" s="4">
         <v>38203</v>
       </c>
       <c r="H117" s="4"/>
@@ -4035,10 +5277,13 @@
       <c r="B118" t="s">
         <v>118</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D118" t="s">
         <v>612</v>
       </c>
-      <c r="D118" s="4">
+      <c r="E118" s="4">
         <v>40066</v>
       </c>
       <c r="H118" s="4"/>
@@ -4050,10 +5295,13 @@
       <c r="B119" t="s">
         <v>119</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="D119" t="s">
         <v>612</v>
       </c>
-      <c r="D119" s="4">
+      <c r="E119" s="4">
         <v>40337</v>
       </c>
       <c r="H119" s="4"/>
@@ -4065,10 +5313,13 @@
       <c r="B120" t="s">
         <v>120</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="D120" t="s">
         <v>612</v>
       </c>
-      <c r="D120" s="4">
+      <c r="E120" s="4">
         <v>40505</v>
       </c>
       <c r="H120" s="4"/>
@@ -4080,10 +5331,13 @@
       <c r="B121" t="s">
         <v>121</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="D121" t="s">
         <v>612</v>
       </c>
-      <c r="D121" s="4">
+      <c r="E121" s="4">
         <v>40645</v>
       </c>
       <c r="H121" s="4"/>
@@ -4095,10 +5349,13 @@
       <c r="B122" t="s">
         <v>122</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="D122" t="s">
         <v>612</v>
       </c>
-      <c r="D122" s="4">
+      <c r="E122" s="4">
         <v>40724</v>
       </c>
       <c r="H122" s="4"/>
@@ -4110,10 +5367,13 @@
       <c r="B123" t="s">
         <v>123</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="D123" t="s">
         <v>612</v>
       </c>
-      <c r="D123" s="4">
+      <c r="E123" s="4">
         <v>40752</v>
       </c>
       <c r="H123" s="4"/>
@@ -4125,10 +5385,13 @@
       <c r="B124" t="s">
         <v>124</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D124" t="s">
         <v>612</v>
       </c>
-      <c r="D124" s="4">
+      <c r="E124" s="4">
         <v>42026</v>
       </c>
       <c r="H124" s="4"/>
@@ -4140,10 +5403,13 @@
       <c r="B125" t="s">
         <v>125</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="D125" t="s">
         <v>612</v>
       </c>
-      <c r="D125" s="4">
+      <c r="E125" s="4">
         <v>40116</v>
       </c>
       <c r="H125" s="4"/>
@@ -4155,10 +5421,13 @@
       <c r="B126" t="s">
         <v>126</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D126" t="s">
         <v>612</v>
       </c>
-      <c r="D126" s="4">
+      <c r="E126" s="4">
         <v>40521</v>
       </c>
       <c r="H126" s="4"/>
@@ -4170,10 +5439,13 @@
       <c r="B127" t="s">
         <v>127</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D127" t="s">
         <v>612</v>
       </c>
-      <c r="D127" s="4">
+      <c r="E127" s="4">
         <v>40758</v>
       </c>
       <c r="H127" s="4"/>
@@ -4185,10 +5457,13 @@
       <c r="B128" t="s">
         <v>128</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="D128" t="s">
         <v>612</v>
       </c>
-      <c r="D128" s="4">
+      <c r="E128" s="4">
         <v>35558</v>
       </c>
       <c r="H128" s="4"/>
@@ -4200,10 +5475,13 @@
       <c r="B129" t="s">
         <v>129</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D129" t="s">
         <v>612</v>
       </c>
-      <c r="D129" s="4">
+      <c r="E129" s="4">
         <v>35759</v>
       </c>
       <c r="H129" s="4"/>
@@ -4215,10 +5493,13 @@
       <c r="B130" t="s">
         <v>130</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D130" t="s">
         <v>612</v>
       </c>
-      <c r="D130" s="4">
+      <c r="E130" s="4">
         <v>36118</v>
       </c>
       <c r="H130" s="4"/>
@@ -4230,10 +5511,13 @@
       <c r="B131" t="s">
         <v>131</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="D131" t="s">
         <v>612</v>
       </c>
-      <c r="D131" s="4">
+      <c r="E131" s="4">
         <v>36846</v>
       </c>
       <c r="H131" s="4"/>
@@ -4245,10 +5529,13 @@
       <c r="B132" t="s">
         <v>132</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="D132" t="s">
         <v>612</v>
       </c>
-      <c r="D132" s="4">
+      <c r="E132" s="4">
         <v>37319</v>
       </c>
       <c r="H132" s="4"/>
@@ -4260,10 +5547,13 @@
       <c r="B133" t="s">
         <v>133</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="D133" t="s">
         <v>612</v>
       </c>
-      <c r="D133" s="4">
+      <c r="E133" s="4">
         <v>34044</v>
       </c>
       <c r="H133" s="4"/>
@@ -4275,10 +5565,13 @@
       <c r="B134" t="s">
         <v>134</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="D134" t="s">
         <v>612</v>
       </c>
-      <c r="D134" s="4">
+      <c r="E134" s="4">
         <v>34130</v>
       </c>
       <c r="H134" s="4"/>
@@ -4290,10 +5583,13 @@
       <c r="B135" t="s">
         <v>135</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="D135" t="s">
         <v>612</v>
       </c>
-      <c r="D135" s="4">
+      <c r="E135" s="4">
         <v>34260</v>
       </c>
       <c r="H135" s="4"/>
@@ -4305,10 +5601,13 @@
       <c r="B136" t="s">
         <v>136</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="D136" t="s">
         <v>612</v>
       </c>
-      <c r="D136" s="4">
+      <c r="E136" s="4">
         <v>34292</v>
       </c>
       <c r="H136" s="4"/>
@@ -4320,10 +5619,13 @@
       <c r="B137" t="s">
         <v>137</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="D137" t="s">
         <v>612</v>
       </c>
-      <c r="D137" s="4">
+      <c r="E137" s="4">
         <v>35303</v>
       </c>
       <c r="H137" s="4"/>
@@ -4335,10 +5637,13 @@
       <c r="B138" t="s">
         <v>138</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="D138" t="s">
         <v>612</v>
       </c>
-      <c r="D138" s="4">
+      <c r="E138" s="4">
         <v>42122</v>
       </c>
       <c r="H138" s="4"/>
@@ -4350,10 +5655,13 @@
       <c r="B139" t="s">
         <v>139</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D139" t="s">
         <v>612</v>
       </c>
-      <c r="D139" s="4">
+      <c r="E139" s="4">
         <v>42591</v>
       </c>
       <c r="H139" s="4"/>
@@ -4365,10 +5673,13 @@
       <c r="B140" t="s">
         <v>140</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="D140" t="s">
         <v>612</v>
       </c>
-      <c r="D140" s="4">
+      <c r="E140" s="4">
         <v>42622</v>
       </c>
       <c r="H140" s="4"/>
@@ -4380,10 +5691,13 @@
       <c r="B141" t="s">
         <v>141</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="D141" t="s">
         <v>612</v>
       </c>
-      <c r="D141" s="4">
+      <c r="E141" s="4">
         <v>40814</v>
       </c>
       <c r="H141" s="4"/>
@@ -4395,10 +5709,13 @@
       <c r="B142" t="s">
         <v>142</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="D142" t="s">
         <v>612</v>
       </c>
-      <c r="D142" s="4">
+      <c r="E142" s="4">
         <v>40406</v>
       </c>
       <c r="H142" s="4"/>
@@ -4410,10 +5727,13 @@
       <c r="B143" t="s">
         <v>143</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="D143" t="s">
         <v>612</v>
       </c>
-      <c r="D143" s="4">
+      <c r="E143" s="4">
         <v>40101</v>
       </c>
       <c r="H143" s="4"/>
@@ -4425,10 +5745,13 @@
       <c r="B144" t="s">
         <v>144</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="D144" t="s">
         <v>612</v>
       </c>
-      <c r="D144" s="4">
+      <c r="E144" s="4">
         <v>42557</v>
       </c>
       <c r="H144" s="4"/>
@@ -4440,10 +5763,13 @@
       <c r="B145" t="s">
         <v>145</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="D145" t="s">
         <v>612</v>
       </c>
-      <c r="D145" s="4">
+      <c r="E145" s="4">
         <v>42822</v>
       </c>
       <c r="H145" s="4"/>
@@ -4455,10 +5781,13 @@
       <c r="B146" t="s">
         <v>146</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="D146" t="s">
         <v>614</v>
       </c>
-      <c r="D146" s="4">
+      <c r="E146" s="4">
         <v>34463</v>
       </c>
       <c r="H146" s="4"/>
@@ -4470,10 +5799,13 @@
       <c r="B147" t="s">
         <v>147</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="D147" t="s">
         <v>614</v>
       </c>
-      <c r="D147" s="4">
+      <c r="E147" s="4">
         <v>35912</v>
       </c>
       <c r="G147" s="4"/>
@@ -4485,10 +5817,13 @@
       <c r="B148" t="s">
         <v>148</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="D148" t="s">
         <v>614</v>
       </c>
-      <c r="D148" s="4">
+      <c r="E148" s="4">
         <v>35865</v>
       </c>
       <c r="G148" s="4"/>
@@ -4500,10 +5835,13 @@
       <c r="B149" t="s">
         <v>149</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="D149" t="s">
         <v>614</v>
       </c>
-      <c r="D149" s="4">
+      <c r="E149" s="4">
         <v>36139</v>
       </c>
       <c r="G149" s="4"/>
@@ -4515,10 +5853,13 @@
       <c r="B150" t="s">
         <v>150</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D150" t="s">
         <v>614</v>
       </c>
-      <c r="D150" s="4">
+      <c r="E150" s="4">
         <v>40123</v>
       </c>
       <c r="G150" s="4"/>
@@ -4530,10 +5871,13 @@
       <c r="B151" t="s">
         <v>151</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="D151" t="s">
         <v>614</v>
       </c>
-      <c r="D151" s="4">
+      <c r="E151" s="4">
         <v>40277</v>
       </c>
       <c r="G151" s="4"/>
@@ -4545,10 +5889,13 @@
       <c r="B152" t="s">
         <v>152</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="D152" t="s">
         <v>614</v>
       </c>
-      <c r="D152" s="4">
+      <c r="E152" s="4">
         <v>41667</v>
       </c>
       <c r="G152" s="4"/>
@@ -4560,10 +5907,13 @@
       <c r="B153" t="s">
         <v>153</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="D153" t="s">
         <v>614</v>
       </c>
-      <c r="D153" s="4">
+      <c r="E153" s="4">
         <v>37130</v>
       </c>
       <c r="G153" s="4"/>
@@ -4575,10 +5925,13 @@
       <c r="B154" t="s">
         <v>154</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="D154" t="s">
         <v>614</v>
       </c>
-      <c r="D154" s="4">
+      <c r="E154" s="4">
         <v>34369</v>
       </c>
       <c r="G154" s="4"/>
@@ -4590,10 +5943,13 @@
       <c r="B155" t="s">
         <v>155</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="D155" t="s">
         <v>614</v>
       </c>
-      <c r="D155" s="4">
+      <c r="E155" s="4">
         <v>35136</v>
       </c>
       <c r="G155" s="4"/>
@@ -4605,10 +5961,13 @@
       <c r="B156" t="s">
         <v>156</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="D156" t="s">
         <v>614</v>
       </c>
-      <c r="D156" s="4">
+      <c r="E156" s="4">
         <v>40527</v>
       </c>
       <c r="G156" s="4"/>
@@ -4620,10 +5979,13 @@
       <c r="B157" t="s">
         <v>157</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="D157" t="s">
         <v>615</v>
       </c>
-      <c r="D157" s="4">
+      <c r="E157" s="4">
         <v>35275</v>
       </c>
       <c r="G157" s="4"/>
@@ -4635,10 +5997,13 @@
       <c r="B158" t="s">
         <v>158</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="D158" t="s">
         <v>615</v>
       </c>
-      <c r="D158" s="4">
+      <c r="E158" s="4">
         <v>34318</v>
       </c>
     </row>
@@ -4649,10 +6014,13 @@
       <c r="B159" t="s">
         <v>159</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="D159" t="s">
         <v>615</v>
       </c>
-      <c r="D159" s="4">
+      <c r="E159" s="4">
         <v>35366</v>
       </c>
     </row>
@@ -4663,10 +6031,13 @@
       <c r="B160" t="s">
         <v>160</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="D160" t="s">
         <v>615</v>
       </c>
-      <c r="D160" s="4">
+      <c r="E160" s="4">
         <v>36552</v>
       </c>
     </row>
@@ -4677,10 +6048,13 @@
       <c r="B161" t="s">
         <v>161</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="D161" t="s">
         <v>615</v>
       </c>
-      <c r="D161" s="4">
+      <c r="E161" s="4">
         <v>38163</v>
       </c>
     </row>
@@ -4691,10 +6065,13 @@
       <c r="B162" t="s">
         <v>162</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="D162" t="s">
         <v>615</v>
       </c>
-      <c r="D162" s="4">
+      <c r="E162" s="4">
         <v>38490</v>
       </c>
     </row>
@@ -4705,10 +6082,13 @@
       <c r="B163" t="s">
         <v>163</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="D163" t="s">
         <v>615</v>
       </c>
-      <c r="D163" s="4">
+      <c r="E163" s="4">
         <v>39622</v>
       </c>
     </row>
@@ -4719,10 +6099,13 @@
       <c r="B164" t="s">
         <v>164</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="D164" t="s">
         <v>615</v>
       </c>
-      <c r="D164" s="4">
+      <c r="E164" s="4">
         <v>40066</v>
       </c>
     </row>
@@ -4733,10 +6116,13 @@
       <c r="B165" t="s">
         <v>165</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D165" t="s">
         <v>615</v>
       </c>
-      <c r="D165" s="4">
+      <c r="E165" s="4">
         <v>40323</v>
       </c>
       <c r="H165" s="4"/>
@@ -4748,10 +6134,13 @@
       <c r="B166" t="s">
         <v>166</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="D166" t="s">
         <v>615</v>
       </c>
-      <c r="D166" s="4">
+      <c r="E166" s="4">
         <v>40332</v>
       </c>
       <c r="H166" s="4"/>
@@ -4763,10 +6152,13 @@
       <c r="B167" t="s">
         <v>167</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="D167" t="s">
         <v>615</v>
       </c>
-      <c r="D167" s="4">
+      <c r="E167" s="4">
         <v>40116</v>
       </c>
       <c r="H167" s="4"/>
@@ -4778,10 +6170,13 @@
       <c r="B168" t="s">
         <v>168</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="D168" t="s">
         <v>615</v>
       </c>
-      <c r="D168" s="4">
+      <c r="E168" s="4">
         <v>40116</v>
       </c>
       <c r="H168" s="4"/>
@@ -4793,10 +6188,13 @@
       <c r="B169" t="s">
         <v>169</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="D169" t="s">
         <v>615</v>
       </c>
-      <c r="D169" s="4">
+      <c r="E169" s="4">
         <v>40449</v>
       </c>
       <c r="H169" s="4"/>
@@ -4808,10 +6206,13 @@
       <c r="B170" t="s">
         <v>170</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="D170" t="s">
         <v>615</v>
       </c>
-      <c r="D170" s="4">
+      <c r="E170" s="4">
         <v>35606</v>
       </c>
       <c r="H170" s="4"/>
@@ -4823,10 +6224,13 @@
       <c r="B171" t="s">
         <v>171</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="D171" t="s">
         <v>615</v>
       </c>
-      <c r="D171" s="4">
+      <c r="E171" s="4">
         <v>36014</v>
       </c>
       <c r="H171" s="4"/>
@@ -4838,10 +6242,13 @@
       <c r="B172" t="s">
         <v>172</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="D172" t="s">
         <v>615</v>
       </c>
-      <c r="D172" s="4">
+      <c r="E172" s="4">
         <v>36817</v>
       </c>
       <c r="H172" s="4"/>
@@ -4853,10 +6260,13 @@
       <c r="B173" t="s">
         <v>173</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="D173" t="s">
         <v>615</v>
       </c>
-      <c r="D173" s="4">
+      <c r="E173" s="4">
         <v>36928</v>
       </c>
       <c r="H173" s="4"/>
@@ -4868,10 +6278,13 @@
       <c r="B174" t="s">
         <v>174</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="D174" t="s">
         <v>615</v>
       </c>
-      <c r="D174" s="4">
+      <c r="E174" s="4">
         <v>37788</v>
       </c>
       <c r="H174" s="4"/>
@@ -4883,10 +6296,13 @@
       <c r="B175" t="s">
         <v>175</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="D175" t="s">
         <v>615</v>
       </c>
-      <c r="D175" s="4">
+      <c r="E175" s="4">
         <v>36969</v>
       </c>
       <c r="H175" s="4"/>
@@ -4898,10 +6314,13 @@
       <c r="B176" t="s">
         <v>176</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="D176" t="s">
         <v>615</v>
       </c>
-      <c r="D176" s="4">
+      <c r="E176" s="4">
         <v>37491</v>
       </c>
       <c r="H176" s="4"/>
@@ -4913,10 +6332,13 @@
       <c r="B177" t="s">
         <v>177</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="D177" t="s">
         <v>615</v>
       </c>
-      <c r="D177" s="4">
+      <c r="E177" s="4">
         <v>34417</v>
       </c>
       <c r="H177" s="4"/>
@@ -4928,10 +6350,13 @@
       <c r="B178" t="s">
         <v>178</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="D178" t="s">
         <v>615</v>
       </c>
-      <c r="D178" s="4">
+      <c r="E178" s="4">
         <v>42692</v>
       </c>
       <c r="H178" s="4"/>
@@ -4943,1121 +6368,1346 @@
       <c r="B179" t="s">
         <v>179</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="D179" t="s">
         <v>621</v>
       </c>
-      <c r="D179" s="4">
+      <c r="E179" s="4">
         <v>33331</v>
       </c>
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
-      </c>
-      <c r="C180" t="s">
-        <v>617</v>
-      </c>
-      <c r="D180" s="4">
-        <v>33267</v>
+        <v>193</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="D180" t="s">
+        <v>622</v>
+      </c>
+      <c r="E180" s="4">
+        <v>39282</v>
       </c>
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
-      </c>
-      <c r="C181" t="s">
-        <v>616</v>
-      </c>
-      <c r="D181" s="4">
-        <v>42030</v>
+        <v>199</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="D181" t="s">
+        <v>627</v>
+      </c>
+      <c r="E181" s="4">
+        <v>42759</v>
       </c>
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
-      </c>
-      <c r="C182" t="s">
-        <v>616</v>
-      </c>
-      <c r="D182" s="4">
-        <v>35242</v>
+        <v>200</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="D182" t="s">
+        <v>623</v>
+      </c>
+      <c r="E182" s="4">
+        <v>36474</v>
       </c>
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
-      </c>
-      <c r="C183" t="s">
-        <v>616</v>
-      </c>
-      <c r="D183" s="4">
-        <v>34367</v>
+        <v>201</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="D183" t="s">
+        <v>621</v>
+      </c>
+      <c r="E183" s="4">
+        <v>37876</v>
       </c>
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A184" s="3" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
-      </c>
-      <c r="C184" t="s">
-        <v>616</v>
-      </c>
-      <c r="D184" s="4">
-        <v>35381</v>
+        <v>202</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="D184" t="s">
+        <v>621</v>
+      </c>
+      <c r="E184" s="4">
+        <v>36879</v>
       </c>
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
-      </c>
-      <c r="C185" t="s">
-        <v>616</v>
-      </c>
-      <c r="D185" s="4">
-        <v>35417</v>
+        <v>204</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="D185" t="s">
+        <v>624</v>
+      </c>
+      <c r="E185" s="4">
+        <v>37355</v>
       </c>
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
-      </c>
-      <c r="C186" t="s">
-        <v>616</v>
-      </c>
-      <c r="D186" s="4">
-        <v>35488</v>
+        <v>222</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="D186" t="s">
+        <v>625</v>
+      </c>
+      <c r="E186" s="4">
+        <v>42584</v>
       </c>
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
-      </c>
-      <c r="C187" t="s">
-        <v>616</v>
-      </c>
-      <c r="D187" s="4">
-        <v>35597</v>
+        <v>223</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="D187" t="s">
+        <v>621</v>
+      </c>
+      <c r="E187" s="4">
+        <v>42670</v>
       </c>
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
-      </c>
-      <c r="C188" t="s">
-        <v>616</v>
-      </c>
-      <c r="D188" s="4">
-        <v>35620</v>
+        <v>226</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="D188" t="s">
+        <v>623</v>
+      </c>
+      <c r="E188" s="4">
+        <v>39282</v>
       </c>
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
-      </c>
-      <c r="C189" t="s">
-        <v>616</v>
-      </c>
-      <c r="D189" s="4">
-        <v>35592</v>
+        <v>229</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="D189" t="s">
+        <v>621</v>
+      </c>
+      <c r="E189" s="4">
+        <v>39118</v>
       </c>
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
-      </c>
-      <c r="C190" t="s">
-        <v>616</v>
-      </c>
-      <c r="D190" s="4">
-        <v>35642</v>
+        <v>230</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="D190" t="s">
+        <v>621</v>
+      </c>
+      <c r="E190" s="4">
+        <v>39344</v>
       </c>
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
-      </c>
-      <c r="C191" t="s">
-        <v>616</v>
-      </c>
-      <c r="D191" s="4">
-        <v>36586</v>
+        <v>233</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="D191" t="s">
+        <v>625</v>
+      </c>
+      <c r="E191" s="4">
+        <v>42690</v>
       </c>
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A192" s="3" t="s">
-        <v>522</v>
+        <v>564</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
-      </c>
-      <c r="C192" t="s">
-        <v>616</v>
-      </c>
-      <c r="D192" s="4">
-        <v>42368</v>
+        <v>234</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="D192" t="s">
+        <v>623</v>
+      </c>
+      <c r="E192" s="4">
+        <v>40374</v>
       </c>
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193" s="3" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
-      </c>
-      <c r="C193" t="s">
-        <v>622</v>
-      </c>
-      <c r="D193" s="4">
-        <v>39282</v>
+        <v>236</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="D193" t="s">
+        <v>625</v>
+      </c>
+      <c r="E193" s="4">
+        <v>39217</v>
       </c>
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
-        <v>524</v>
+        <v>570</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
-      </c>
-      <c r="C194" t="s">
-        <v>616</v>
-      </c>
-      <c r="D194" s="4">
-        <v>39302</v>
+        <v>240</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="D194" t="s">
+        <v>621</v>
+      </c>
+      <c r="E194" s="4">
+        <v>39017</v>
       </c>
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
-        <v>525</v>
+        <v>576</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
-      </c>
-      <c r="C195" t="s">
-        <v>616</v>
-      </c>
-      <c r="D195" s="4">
-        <v>40497</v>
+        <v>246</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="D195" t="s">
+        <v>621</v>
+      </c>
+      <c r="E195" s="4">
+        <v>40408</v>
       </c>
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A196" s="3" t="s">
-        <v>526</v>
+        <v>580</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
-      </c>
-      <c r="C196" t="s">
-        <v>616</v>
-      </c>
-      <c r="D196" s="4">
-        <v>41032</v>
+        <v>250</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="D196" t="s">
+        <v>626</v>
+      </c>
+      <c r="E196" s="4">
+        <v>39350</v>
       </c>
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
-        <v>527</v>
+        <v>581</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
-      </c>
-      <c r="C197" t="s">
-        <v>616</v>
-      </c>
-      <c r="D197" s="4">
-        <v>42002</v>
+        <v>251</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="D197" t="s">
+        <v>623</v>
+      </c>
+      <c r="E197" s="4">
+        <v>38903</v>
       </c>
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A198" s="3" t="s">
-        <v>528</v>
+        <v>582</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
-      </c>
-      <c r="C198" t="s">
-        <v>616</v>
-      </c>
-      <c r="D198" s="4">
-        <v>42501</v>
+        <v>252</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="D198" t="s">
+        <v>623</v>
+      </c>
+      <c r="E198" s="4">
+        <v>42598</v>
       </c>
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
-        <v>529</v>
+        <v>583</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
-      </c>
-      <c r="C199" t="s">
-        <v>627</v>
-      </c>
-      <c r="D199" s="4">
-        <v>42759</v>
+        <v>253</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="D199" t="s">
+        <v>623</v>
+      </c>
+      <c r="E199" s="4">
+        <v>39199</v>
       </c>
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A200" s="3" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
-      </c>
-      <c r="C200" t="s">
-        <v>623</v>
-      </c>
-      <c r="D200" s="4">
-        <v>36474</v>
+        <v>180</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="D200" t="s">
+        <v>617</v>
+      </c>
+      <c r="E200" s="4">
+        <v>33267</v>
       </c>
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A201" s="3" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
-      </c>
-      <c r="C201" t="s">
-        <v>621</v>
-      </c>
-      <c r="D201" s="4">
-        <v>37876</v>
+        <v>181</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="D201" t="s">
+        <v>616</v>
+      </c>
+      <c r="E201" s="4">
+        <v>42030</v>
       </c>
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
-      </c>
-      <c r="C202" t="s">
-        <v>621</v>
-      </c>
-      <c r="D202" s="4">
-        <v>36879</v>
+        <v>182</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="D202" t="s">
+        <v>616</v>
+      </c>
+      <c r="E202" s="4">
+        <v>35242</v>
       </c>
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203" s="3" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
-      </c>
-      <c r="C203" t="s">
+        <v>183</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="D203" t="s">
         <v>616</v>
       </c>
-      <c r="D203" s="4">
-        <v>37627</v>
+      <c r="E203" s="4">
+        <v>34367</v>
       </c>
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
-      </c>
-      <c r="C204" t="s">
-        <v>624</v>
-      </c>
-      <c r="D204" s="4">
-        <v>37355</v>
+        <v>184</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="D204" t="s">
+        <v>616</v>
+      </c>
+      <c r="E204" s="4">
+        <v>35381</v>
       </c>
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
-      </c>
-      <c r="C205" t="s">
+        <v>185</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="D205" t="s">
         <v>616</v>
       </c>
-      <c r="D205" s="4">
-        <v>38929</v>
+      <c r="E205" s="4">
+        <v>35417</v>
       </c>
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
-      </c>
-      <c r="C206" t="s">
+        <v>186</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="D206" t="s">
         <v>616</v>
       </c>
-      <c r="D206" s="4">
-        <v>35569</v>
+      <c r="E206" s="4">
+        <v>35488</v>
       </c>
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
-      </c>
-      <c r="C207" t="s">
+        <v>187</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="D207" t="s">
         <v>616</v>
       </c>
-      <c r="D207" s="4">
-        <v>35649</v>
+      <c r="E207" s="4">
+        <v>35597</v>
       </c>
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
-      </c>
-      <c r="C208" t="s">
+        <v>188</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="D208" t="s">
         <v>616</v>
       </c>
-      <c r="D208" s="4">
-        <v>36334</v>
+      <c r="E208" s="4">
+        <v>35620</v>
       </c>
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
-      </c>
-      <c r="C209" t="s">
+        <v>189</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="D209" t="s">
         <v>616</v>
       </c>
-      <c r="D209" s="4">
-        <v>37985</v>
+      <c r="E209" s="4">
+        <v>35592</v>
       </c>
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
-      </c>
-      <c r="C210" t="s">
+        <v>190</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="D210" t="s">
         <v>616</v>
       </c>
-      <c r="D210" s="4">
-        <v>36900</v>
+      <c r="E210" s="4">
+        <v>35642</v>
       </c>
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
-      </c>
-      <c r="C211" t="s">
+        <v>191</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="D211" t="s">
         <v>616</v>
       </c>
-      <c r="D211" s="4">
-        <v>36962</v>
+      <c r="E211" s="4">
+        <v>36586</v>
       </c>
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
-      </c>
-      <c r="C212" t="s">
+        <v>192</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D212" t="s">
         <v>616</v>
       </c>
-      <c r="D212" s="4">
-        <v>36993</v>
+      <c r="E212" s="4">
+        <v>42368</v>
       </c>
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
-      </c>
-      <c r="C213" t="s">
+        <v>194</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="D213" t="s">
         <v>616</v>
       </c>
-      <c r="D213" s="4">
-        <v>36906</v>
+      <c r="E213" s="4">
+        <v>39302</v>
       </c>
       <c r="H213" s="4"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
-      </c>
-      <c r="C214" t="s">
+        <v>195</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="D214" t="s">
         <v>616</v>
       </c>
-      <c r="D214" s="4">
-        <v>33690</v>
+      <c r="E214" s="4">
+        <v>40497</v>
       </c>
       <c r="H214" s="4"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
-      </c>
-      <c r="C215" t="s">
+        <v>196</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="D215" t="s">
         <v>616</v>
       </c>
-      <c r="D215" s="4">
-        <v>34107</v>
+      <c r="E215" s="4">
+        <v>41032</v>
       </c>
       <c r="H215" s="4"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
-      </c>
-      <c r="C216" t="s">
+        <v>197</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="D216" t="s">
         <v>616</v>
       </c>
-      <c r="D216" s="4">
-        <v>34148</v>
+      <c r="E216" s="4">
+        <v>42002</v>
       </c>
       <c r="H216" s="4"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
-      </c>
-      <c r="C217" t="s">
+        <v>198</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="D217" t="s">
         <v>616</v>
       </c>
-      <c r="D217" s="4">
-        <v>35201</v>
+      <c r="E217" s="4">
+        <v>42501</v>
       </c>
       <c r="H217" s="4"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
-      </c>
-      <c r="C218" t="s">
+        <v>203</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="D218" t="s">
         <v>616</v>
       </c>
-      <c r="D218" s="4">
-        <v>34362</v>
+      <c r="E218" s="4">
+        <v>37627</v>
       </c>
       <c r="H218" s="4"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
-      </c>
-      <c r="C219" t="s">
+        <v>205</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="D219" t="s">
         <v>616</v>
       </c>
-      <c r="D219" s="4">
-        <v>34389</v>
+      <c r="E219" s="4">
+        <v>38929</v>
       </c>
       <c r="H219" s="4"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
-      </c>
-      <c r="C220" t="s">
+        <v>206</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="D220" t="s">
         <v>616</v>
       </c>
-      <c r="D220" s="4">
-        <v>35177</v>
+      <c r="E220" s="4">
+        <v>35569</v>
       </c>
       <c r="H220" s="4"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
-      </c>
-      <c r="C221" t="s">
+        <v>207</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="D221" t="s">
         <v>616</v>
       </c>
-      <c r="D221" s="4">
-        <v>42710</v>
+      <c r="E221" s="4">
+        <v>35649</v>
       </c>
       <c r="H221" s="4"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
-      </c>
-      <c r="C222" t="s">
-        <v>625</v>
-      </c>
-      <c r="D222" s="4">
-        <v>42584</v>
+        <v>208</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="D222" t="s">
+        <v>616</v>
+      </c>
+      <c r="E222" s="4">
+        <v>36334</v>
       </c>
       <c r="H222" s="4"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
-      </c>
-      <c r="C223" t="s">
-        <v>621</v>
-      </c>
-      <c r="D223" s="4">
-        <v>42670</v>
+        <v>209</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="D223" t="s">
+        <v>616</v>
+      </c>
+      <c r="E223" s="4">
+        <v>37985</v>
       </c>
       <c r="H223" s="4"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
-      </c>
-      <c r="C224" t="s">
+        <v>210</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="D224" t="s">
         <v>616</v>
       </c>
-      <c r="D224" s="4">
-        <v>42086</v>
+      <c r="E224" s="4">
+        <v>36900</v>
       </c>
       <c r="H224" s="4"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
-      </c>
-      <c r="C225" t="s">
+        <v>211</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="D225" t="s">
         <v>616</v>
       </c>
-      <c r="D225" s="4">
-        <v>40134</v>
+      <c r="E225" s="4">
+        <v>36962</v>
       </c>
       <c r="H225" s="4"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
-      </c>
-      <c r="C226" t="s">
-        <v>623</v>
-      </c>
-      <c r="D226" s="4">
-        <v>39282</v>
+        <v>212</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="D226" t="s">
+        <v>616</v>
+      </c>
+      <c r="E226" s="4">
+        <v>36993</v>
       </c>
       <c r="H226" s="4"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
-      </c>
-      <c r="C227" t="s">
+        <v>213</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="D227" t="s">
         <v>616</v>
       </c>
-      <c r="D227" s="4">
-        <v>39444</v>
+      <c r="E227" s="4">
+        <v>36906</v>
       </c>
       <c r="H227" s="4"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A228" s="3" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C228" t="s">
+        <v>214</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="D228" t="s">
         <v>616</v>
       </c>
-      <c r="D228" s="4">
-        <v>42342</v>
+      <c r="E228" s="4">
+        <v>33690</v>
       </c>
       <c r="H228" s="4"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A229" s="3" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
-      </c>
-      <c r="C229" t="s">
-        <v>621</v>
-      </c>
-      <c r="D229" s="4">
-        <v>39118</v>
+        <v>215</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="D229" t="s">
+        <v>616</v>
+      </c>
+      <c r="E229" s="4">
+        <v>34107</v>
       </c>
       <c r="H229" s="4"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A230" s="3" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
-      </c>
-      <c r="C230" t="s">
-        <v>621</v>
-      </c>
-      <c r="D230" s="4">
-        <v>39344</v>
+        <v>216</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="D230" t="s">
+        <v>616</v>
+      </c>
+      <c r="E230" s="4">
+        <v>34148</v>
       </c>
       <c r="H230" s="4"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A231" s="3" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
-      </c>
-      <c r="C231" t="s">
+        <v>217</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="D231" t="s">
         <v>616</v>
       </c>
-      <c r="D231" s="4">
-        <v>42061</v>
+      <c r="E231" s="4">
+        <v>35201</v>
       </c>
       <c r="H231" s="4"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A232" s="3" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
-      </c>
-      <c r="C232" t="s">
+        <v>218</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="D232" t="s">
         <v>616</v>
       </c>
-      <c r="D232" s="4">
-        <v>42181</v>
+      <c r="E232" s="4">
+        <v>34362</v>
       </c>
       <c r="H232" s="4"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A233" s="3" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
-      </c>
-      <c r="C233" t="s">
-        <v>625</v>
-      </c>
-      <c r="D233" s="4">
-        <v>42690</v>
+        <v>219</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="D233" t="s">
+        <v>616</v>
+      </c>
+      <c r="E233" s="4">
+        <v>34389</v>
       </c>
       <c r="H233" s="4"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A234" s="3" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
-      </c>
-      <c r="C234" t="s">
-        <v>623</v>
-      </c>
-      <c r="D234" s="4">
-        <v>40374</v>
+        <v>220</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="D234" t="s">
+        <v>616</v>
+      </c>
+      <c r="E234" s="4">
+        <v>35177</v>
       </c>
       <c r="H234" s="4"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A235" s="3" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
-      </c>
-      <c r="C235" t="s">
+        <v>221</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="D235" t="s">
         <v>616</v>
       </c>
-      <c r="D235" s="4">
-        <v>39142</v>
+      <c r="E235" s="4">
+        <v>42710</v>
       </c>
       <c r="H235" s="4"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A236" s="3" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B236" t="s">
-        <v>236</v>
-      </c>
-      <c r="C236" t="s">
-        <v>625</v>
-      </c>
-      <c r="D236" s="4">
-        <v>39217</v>
+        <v>224</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="D236" t="s">
+        <v>616</v>
+      </c>
+      <c r="E236" s="4">
+        <v>42086</v>
       </c>
       <c r="H236" s="4"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A237" s="3" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
-      </c>
-      <c r="C237" t="s">
+        <v>225</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="D237" t="s">
         <v>616</v>
       </c>
-      <c r="D237" s="4">
-        <v>40893</v>
+      <c r="E237" s="4">
+        <v>40134</v>
       </c>
       <c r="H237" s="4"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A238" s="3" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B238" t="s">
-        <v>238</v>
-      </c>
-      <c r="C238" t="s">
+        <v>227</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="D238" t="s">
         <v>616</v>
       </c>
-      <c r="D238" s="4">
-        <v>42738</v>
+      <c r="E238" s="4">
+        <v>39444</v>
       </c>
       <c r="H238" s="4"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A239" s="3" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B239" t="s">
-        <v>239</v>
-      </c>
-      <c r="C239" t="s">
+        <v>228</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="D239" t="s">
         <v>616</v>
       </c>
-      <c r="D239" s="4">
-        <v>40464</v>
+      <c r="E239" s="4">
+        <v>42342</v>
       </c>
       <c r="H239" s="4"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A240" s="3" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
-      </c>
-      <c r="C240" t="s">
-        <v>621</v>
-      </c>
-      <c r="D240" s="4">
-        <v>39017</v>
+        <v>231</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="D240" t="s">
+        <v>616</v>
+      </c>
+      <c r="E240" s="4">
+        <v>42061</v>
       </c>
       <c r="H240" s="4"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A241" s="3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
-      </c>
-      <c r="C241" t="s">
+        <v>232</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="D241" t="s">
         <v>616</v>
       </c>
-      <c r="D241" s="4">
-        <v>40889</v>
+      <c r="E241" s="4">
+        <v>42181</v>
       </c>
       <c r="H241" s="4"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A242" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B242" t="s">
-        <v>242</v>
-      </c>
-      <c r="C242" t="s">
+        <v>235</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="D242" t="s">
         <v>616</v>
       </c>
-      <c r="D242" s="4">
-        <v>39441</v>
+      <c r="E242" s="4">
+        <v>39142</v>
       </c>
       <c r="H242" s="4"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A243" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B243" t="s">
-        <v>243</v>
-      </c>
-      <c r="C243" t="s">
+        <v>237</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="D243" t="s">
         <v>616</v>
       </c>
-      <c r="D243" s="4">
-        <v>39091</v>
+      <c r="E243" s="4">
+        <v>40893</v>
       </c>
       <c r="H243" s="4"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A244" s="3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
-      </c>
-      <c r="C244" t="s">
+        <v>238</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="D244" t="s">
         <v>616</v>
       </c>
-      <c r="D244" s="4">
-        <v>40235</v>
+      <c r="E244" s="4">
+        <v>42738</v>
       </c>
       <c r="H244" s="4"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A245" s="3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
-      </c>
-      <c r="C245" t="s">
+        <v>239</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="D245" t="s">
         <v>616</v>
       </c>
-      <c r="D245" s="4">
-        <v>40043</v>
+      <c r="E245" s="4">
+        <v>40464</v>
       </c>
       <c r="H245" s="4"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A246" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
-      </c>
-      <c r="C246" t="s">
-        <v>621</v>
-      </c>
-      <c r="D246" s="4">
-        <v>40408</v>
+        <v>241</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="D246" t="s">
+        <v>616</v>
+      </c>
+      <c r="E246" s="4">
+        <v>40889</v>
       </c>
       <c r="H246" s="4"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A247" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B247" t="s">
-        <v>247</v>
-      </c>
-      <c r="C247" t="s">
+        <v>242</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="D247" t="s">
         <v>616</v>
       </c>
-      <c r="D247" s="4">
-        <v>42912</v>
+      <c r="E247" s="4">
+        <v>39441</v>
       </c>
       <c r="H247" s="4"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B248" t="s">
-        <v>248</v>
-      </c>
-      <c r="C248" t="s">
+        <v>243</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="D248" t="s">
         <v>616</v>
       </c>
-      <c r="D248" s="4">
-        <v>42758</v>
+      <c r="E248" s="4">
+        <v>39091</v>
       </c>
       <c r="H248" s="4"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A249" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B249" t="s">
-        <v>249</v>
-      </c>
-      <c r="C249" t="s">
+        <v>244</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="D249" t="s">
         <v>616</v>
       </c>
-      <c r="D249" s="4">
-        <v>40765</v>
+      <c r="E249" s="4">
+        <v>40235</v>
       </c>
       <c r="H249" s="4"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A250" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B250" t="s">
-        <v>250</v>
-      </c>
-      <c r="C250" t="s">
-        <v>626</v>
-      </c>
-      <c r="D250" s="4">
-        <v>39350</v>
+        <v>245</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="D250" t="s">
+        <v>616</v>
+      </c>
+      <c r="E250" s="4">
+        <v>40043</v>
       </c>
       <c r="H250" s="4"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A251" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B251" t="s">
-        <v>251</v>
-      </c>
-      <c r="C251" t="s">
-        <v>623</v>
-      </c>
-      <c r="D251" s="4">
-        <v>38903</v>
+        <v>247</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="D251" t="s">
+        <v>616</v>
+      </c>
+      <c r="E251" s="4">
+        <v>42912</v>
       </c>
       <c r="H251" s="4"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A252" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B252" t="s">
-        <v>252</v>
-      </c>
-      <c r="C252" t="s">
-        <v>623</v>
-      </c>
-      <c r="D252" s="4">
-        <v>42598</v>
+        <v>248</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="D252" t="s">
+        <v>616</v>
+      </c>
+      <c r="E252" s="4">
+        <v>42758</v>
       </c>
       <c r="H252" s="4"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A253" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B253" t="s">
-        <v>253</v>
-      </c>
-      <c r="C253" t="s">
-        <v>623</v>
-      </c>
-      <c r="D253" s="4">
-        <v>39199</v>
+        <v>249</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="D253" t="s">
+        <v>616</v>
+      </c>
+      <c r="E253" s="4">
+        <v>40765</v>
       </c>
       <c r="H253" s="4"/>
     </row>
@@ -6068,10 +7718,13 @@
       <c r="B254" t="s">
         <v>254</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="D254" t="s">
         <v>618</v>
       </c>
-      <c r="D254" s="4">
+      <c r="E254" s="4">
         <v>35333</v>
       </c>
       <c r="H254" s="4"/>
@@ -6083,10 +7736,13 @@
       <c r="B255" t="s">
         <v>255</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="D255" t="s">
         <v>618</v>
       </c>
-      <c r="D255" s="4">
+      <c r="E255" s="4">
         <v>33938</v>
       </c>
       <c r="H255" s="4"/>
@@ -6098,10 +7754,13 @@
       <c r="B256" t="s">
         <v>256</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="D256" t="s">
         <v>618</v>
       </c>
-      <c r="D256" s="4">
+      <c r="E256" s="4">
         <v>36903</v>
       </c>
       <c r="H256" s="4"/>
@@ -6113,10 +7772,13 @@
       <c r="B257" t="s">
         <v>257</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="D257" t="s">
         <v>618</v>
       </c>
-      <c r="D257" s="4">
+      <c r="E257" s="4">
         <v>36468</v>
       </c>
       <c r="H257" s="4"/>
@@ -6128,10 +7790,13 @@
       <c r="B258" t="s">
         <v>258</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="D258" t="s">
         <v>618</v>
       </c>
-      <c r="D258" s="4">
+      <c r="E258" s="4">
         <v>38163</v>
       </c>
       <c r="H258" s="4"/>
@@ -6143,10 +7808,13 @@
       <c r="B259" t="s">
         <v>259</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="D259" t="s">
         <v>618</v>
       </c>
-      <c r="D259" s="4">
+      <c r="E259" s="4">
         <v>38952</v>
       </c>
       <c r="H259" s="4"/>
@@ -6158,10 +7826,13 @@
       <c r="B260" t="s">
         <v>260</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="D260" t="s">
         <v>618</v>
       </c>
-      <c r="D260" s="4">
+      <c r="E260" s="4">
         <v>39307</v>
       </c>
       <c r="H260" s="4"/>
@@ -6173,10 +7844,13 @@
       <c r="B261" t="s">
         <v>261</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="D261" t="s">
         <v>618</v>
       </c>
-      <c r="D261" s="4">
+      <c r="E261" s="4">
         <v>39350</v>
       </c>
       <c r="H261" s="4"/>
@@ -6188,10 +7862,13 @@
       <c r="B262" t="s">
         <v>262</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="D262" t="s">
         <v>618</v>
       </c>
-      <c r="D262" s="4">
+      <c r="E262" s="4">
         <v>39580</v>
       </c>
       <c r="H262" s="4"/>
@@ -6203,10 +7880,13 @@
       <c r="B263" t="s">
         <v>263</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="D263" t="s">
         <v>618</v>
       </c>
-      <c r="D263" s="4">
+      <c r="E263" s="4">
         <v>39588</v>
       </c>
       <c r="H263" s="4"/>
@@ -6218,10 +7898,13 @@
       <c r="B264" t="s">
         <v>264</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="D264" t="s">
         <v>618</v>
       </c>
-      <c r="D264" s="4">
+      <c r="E264" s="4">
         <v>39590</v>
       </c>
       <c r="H264" s="4"/>
@@ -6233,10 +7916,13 @@
       <c r="B265" t="s">
         <v>265</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="D265" t="s">
         <v>618</v>
       </c>
-      <c r="D265" s="4">
+      <c r="E265" s="4">
         <v>40326</v>
       </c>
       <c r="H265" s="4"/>
@@ -6248,10 +7934,13 @@
       <c r="B266" t="s">
         <v>266</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="D266" t="s">
         <v>618</v>
       </c>
-      <c r="D266" s="4">
+      <c r="E266" s="4">
         <v>40393</v>
       </c>
       <c r="H266" s="4"/>
@@ -6263,10 +7952,13 @@
       <c r="B267" t="s">
         <v>267</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="D267" t="s">
         <v>618</v>
       </c>
-      <c r="D267" s="4">
+      <c r="E267" s="4">
         <v>40436</v>
       </c>
       <c r="H267" s="4"/>
@@ -6278,10 +7970,13 @@
       <c r="B268" t="s">
         <v>268</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="D268" t="s">
         <v>618</v>
       </c>
-      <c r="D268" s="4">
+      <c r="E268" s="4">
         <v>40604</v>
       </c>
       <c r="H268" s="4"/>
@@ -6293,10 +7988,13 @@
       <c r="B269" t="s">
         <v>269</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="D269" t="s">
         <v>618</v>
       </c>
-      <c r="D269" s="4">
+      <c r="E269" s="4">
         <v>40604</v>
       </c>
       <c r="H269" s="4"/>
@@ -6308,10 +8006,13 @@
       <c r="B270" t="s">
         <v>270</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D270" t="s">
         <v>618</v>
       </c>
-      <c r="D270" s="4">
+      <c r="E270" s="4">
         <v>40844</v>
       </c>
       <c r="H270" s="4"/>
@@ -6323,10 +8024,13 @@
       <c r="B271" t="s">
         <v>271</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="D271" t="s">
         <v>618</v>
       </c>
-      <c r="D271" s="4">
+      <c r="E271" s="4">
         <v>42754</v>
       </c>
       <c r="H271" s="4"/>
@@ -6338,10 +8042,13 @@
       <c r="B272" t="s">
         <v>272</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="D272" t="s">
         <v>618</v>
       </c>
-      <c r="D272" s="4">
+      <c r="E272" s="4">
         <v>40116</v>
       </c>
       <c r="H272" s="4"/>
@@ -6353,10 +8060,13 @@
       <c r="B273" t="s">
         <v>273</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D273" t="s">
         <v>618</v>
       </c>
-      <c r="D273" s="4">
+      <c r="E273" s="4">
         <v>40172</v>
       </c>
       <c r="H273" s="4"/>
@@ -6368,10 +8078,13 @@
       <c r="B274" t="s">
         <v>274</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="D274" t="s">
         <v>618</v>
       </c>
-      <c r="D274" s="4">
+      <c r="E274" s="4">
         <v>40256</v>
       </c>
       <c r="H274" s="4"/>
@@ -6383,10 +8096,13 @@
       <c r="B275" t="s">
         <v>275</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="D275" t="s">
         <v>618</v>
       </c>
-      <c r="D275" s="4">
+      <c r="E275" s="4">
         <v>41040</v>
       </c>
       <c r="H275" s="4"/>
@@ -6398,10 +8114,13 @@
       <c r="B276" t="s">
         <v>276</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="D276" t="s">
         <v>618</v>
       </c>
-      <c r="D276" s="4">
+      <c r="E276" s="4">
         <v>35604</v>
       </c>
       <c r="H276" s="4"/>
@@ -6413,10 +8132,13 @@
       <c r="B277" t="s">
         <v>277</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="D277" t="s">
         <v>618</v>
       </c>
-      <c r="D277" s="4">
+      <c r="E277" s="4">
         <v>35608</v>
       </c>
       <c r="H277" s="4"/>
@@ -6428,10 +8150,13 @@
       <c r="B278" t="s">
         <v>278</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="D278" t="s">
         <v>618</v>
       </c>
-      <c r="D278" s="4">
+      <c r="E278" s="4">
         <v>37813</v>
       </c>
       <c r="H278" s="4"/>
@@ -6443,10 +8168,13 @@
       <c r="B279" t="s">
         <v>279</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="D279" t="s">
         <v>618</v>
       </c>
-      <c r="D279" s="4">
+      <c r="E279" s="4">
         <v>37971</v>
       </c>
       <c r="H279" s="4"/>
@@ -6458,10 +8186,13 @@
       <c r="B280" t="s">
         <v>280</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="D280" t="s">
         <v>618</v>
       </c>
-      <c r="D280" s="4">
+      <c r="E280" s="4">
         <v>37029</v>
       </c>
       <c r="H280" s="4"/>
@@ -6473,10 +8204,13 @@
       <c r="B281" t="s">
         <v>281</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="D281" t="s">
         <v>618</v>
       </c>
-      <c r="D281" s="4">
+      <c r="E281" s="4">
         <v>35213</v>
       </c>
     </row>
@@ -6487,10 +8221,13 @@
       <c r="B282" t="s">
         <v>282</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="D282" t="s">
         <v>618</v>
       </c>
-      <c r="D282" s="4">
+      <c r="E282" s="4">
         <v>34337</v>
       </c>
     </row>
@@ -6501,10 +8238,13 @@
       <c r="B283" t="s">
         <v>283</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="D283" t="s">
         <v>618</v>
       </c>
-      <c r="D283" s="4">
+      <c r="E283" s="4">
         <v>42660</v>
       </c>
     </row>
@@ -6515,10 +8255,13 @@
       <c r="B284" t="s">
         <v>295</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="D284" t="s">
         <v>619</v>
       </c>
-      <c r="D284" s="4">
+      <c r="E284" s="4">
         <v>35752</v>
       </c>
     </row>
@@ -6529,10 +8272,13 @@
       <c r="B285" t="s">
         <v>296</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="D285" t="s">
         <v>619</v>
       </c>
-      <c r="D285" s="4">
+      <c r="E285" s="4">
         <v>40421</v>
       </c>
       <c r="H285" s="4"/>
@@ -6544,10 +8290,13 @@
       <c r="B286" t="s">
         <v>297</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="D286" t="s">
         <v>619</v>
       </c>
-      <c r="D286" s="4">
+      <c r="E286" s="4">
         <v>40487</v>
       </c>
       <c r="H286" s="4"/>
@@ -6559,10 +8308,13 @@
       <c r="B287" t="s">
         <v>298</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="D287" t="s">
         <v>619</v>
       </c>
-      <c r="D287" s="4">
+      <c r="E287" s="4">
         <v>37538</v>
       </c>
       <c r="H287" s="4"/>
@@ -6574,10 +8326,13 @@
       <c r="B288" t="s">
         <v>299</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="D288" t="s">
         <v>619</v>
       </c>
-      <c r="D288" s="4">
+      <c r="E288" s="4">
         <v>37840</v>
       </c>
       <c r="H288" s="4"/>
@@ -6589,10 +8344,13 @@
       <c r="B289" t="s">
         <v>300</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="D289" t="s">
         <v>619</v>
       </c>
-      <c r="D289" s="4">
+      <c r="E289" s="4">
         <v>37126</v>
       </c>
       <c r="H289" s="4"/>
@@ -6604,10 +8362,13 @@
       <c r="B290" t="s">
         <v>301</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="D290" t="s">
         <v>619</v>
       </c>
-      <c r="D290" s="4">
+      <c r="E290" s="4">
         <v>37553</v>
       </c>
       <c r="H290" s="4"/>
@@ -6619,10 +8380,13 @@
       <c r="B291" t="s">
         <v>284</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="D291" t="s">
         <v>620</v>
       </c>
-      <c r="D291" s="4">
+      <c r="E291" s="4">
         <v>40765</v>
       </c>
       <c r="H291" s="4"/>
@@ -6634,10 +8398,13 @@
       <c r="B292" t="s">
         <v>285</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="D292" t="s">
         <v>620</v>
       </c>
-      <c r="D292" s="4">
+      <c r="E292" s="4">
         <v>36643</v>
       </c>
     </row>
@@ -6648,10 +8415,13 @@
       <c r="B293" t="s">
         <v>286</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="D293" t="s">
         <v>620</v>
       </c>
-      <c r="D293" s="4">
+      <c r="E293" s="4">
         <v>37231</v>
       </c>
       <c r="I293" s="4"/>
@@ -6663,10 +8433,13 @@
       <c r="B294" t="s">
         <v>287</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="D294" t="s">
         <v>620</v>
       </c>
-      <c r="D294" s="4">
+      <c r="E294" s="4">
         <v>37923</v>
       </c>
       <c r="I294" s="4"/>
@@ -6678,10 +8451,13 @@
       <c r="B295" t="s">
         <v>288</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="D295" t="s">
         <v>620</v>
       </c>
-      <c r="D295" s="4">
+      <c r="E295" s="4">
         <v>41627</v>
       </c>
       <c r="I295" s="4"/>
@@ -6693,10 +8469,13 @@
       <c r="B296" t="s">
         <v>289</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="D296" t="s">
         <v>620</v>
       </c>
-      <c r="D296" s="4">
+      <c r="E296" s="4">
         <v>34236</v>
       </c>
       <c r="I296" s="4"/>
@@ -6708,10 +8487,13 @@
       <c r="B297" t="s">
         <v>290</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="D297" t="s">
         <v>620</v>
       </c>
-      <c r="D297" s="4">
+      <c r="E297" s="4">
         <v>35507</v>
       </c>
       <c r="I297" s="4"/>
@@ -6723,10 +8505,13 @@
       <c r="B298" t="s">
         <v>291</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="D298" t="s">
         <v>620</v>
       </c>
-      <c r="D298" s="4">
+      <c r="E298" s="4">
         <v>35082</v>
       </c>
       <c r="I298" s="4"/>
@@ -6738,10 +8523,13 @@
       <c r="B299" t="s">
         <v>292</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="D299" t="s">
         <v>620</v>
       </c>
-      <c r="D299" s="4">
+      <c r="E299" s="4">
         <v>37943</v>
       </c>
       <c r="I299" s="4"/>
@@ -6753,10 +8541,13 @@
       <c r="B300" t="s">
         <v>293</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="D300" t="s">
         <v>620</v>
       </c>
-      <c r="D300" s="4">
+      <c r="E300" s="4">
         <v>42165</v>
       </c>
       <c r="I300" s="4"/>
@@ -6768,10 +8559,13 @@
       <c r="B301" t="s">
         <v>294</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="D301" t="s">
         <v>620</v>
       </c>
-      <c r="D301" s="4">
+      <c r="E301" s="4">
         <v>39071</v>
       </c>
       <c r="I301" s="4"/>
